--- a/STM32F103_Wall-E_Car_V1.0/修改记录.xlsx
+++ b/STM32F103_Wall-E_Car_V1.0/修改记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="16440" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2490" windowWidth="16440" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>电机驱动部分移植基本完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016年12月18日23:53:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植OLED、舵机完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,6 +835,17 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
